--- a/biology/Botanique/Aeonium_lancerottense/Aeonium_lancerottense.xlsx
+++ b/biology/Botanique/Aeonium_lancerottense/Aeonium_lancerottense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium lancerottense est une plante grasse ligneuse de la famille des Crassulacées, endémique aux îles Canaries
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sempervivum lancerottense,  Praeger	
 Le nom local est bejeque de malpaís.
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique à Lanzarote[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique à Lanzarote.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles en rosettes marginées de rouge
 Floraison nombreuse en épis coniques plutôt aplatis
-Fleurs rose pâle[2].
+Fleurs rose pâle.
 Ces caractères le différencie de Aeonium balsamiferum, (l'autre Aeonium présent à Lanzarote), dont les feuilles ne sont pas marginées de rouge, les épis floraux rares et coniques bien marqués et les fleurs jaunes.
 </t>
         </is>
